--- a/přílohy/popis-dat/šablony/Šablona-pro-popis-dat.xlsx
+++ b/přílohy/popis-dat/šablony/Šablona-pro-popis-dat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalniagentura.sharepoint.com/sites/Evidenceasdlendat/Sdilene dokumenty/Popis dat/Popis dat - metodika/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceBinderová\data.gov.cz-b\přílohy\popis-dat\šablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DA15CC04-F08F-43BA-B4B1-94ECACF64195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8669B1-7FF8-4775-9824-0F1212CFA4FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96340686-6ECA-477D-BC3E-203E08EDAA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3555" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Slovník" sheetId="6" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Vztahy" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Subjekty a objekty práva'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vlastnosti!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vztahy!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Subjekty a objekty práva'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vlastnosti!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vztahy!$A$1:$N$1</definedName>
     <definedName name="_Hlk54895874" localSheetId="1">'Subjekty a objekty práva'!#REF!</definedName>
     <definedName name="_Hlk54895874" localSheetId="2">Vlastnosti!#REF!</definedName>
     <definedName name="_Hlk54895874" localSheetId="3">Vztahy!#REF!</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Název</t>
   </si>
@@ -240,9 +240,6 @@
     </r>
   </si>
   <si>
-    <t>o úřadu vydávajícího průkaz (obecním úřadem ORP) se nachází na nějaké adrese. Adresa je obecně definována v zákoně o základních registrech.</t>
-  </si>
-  <si>
     <t>Z definice vyplývá, že řidiči, kteří jsou evidováni v registru řidičů, mohou být držiteli řidičského průkazu.</t>
   </si>
   <si>
@@ -286,6 +283,15 @@
   </si>
   <si>
     <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/sídlí-na-adrese</t>
+  </si>
+  <si>
+    <t>Sídlo úřadu vydávajícího průkaz (obecním úřadem ORP) se nachází na nějaké adrese. Adresa je obecně definována v zákoně o základních registrech.</t>
+  </si>
+  <si>
+    <t>Alternativní název</t>
+  </si>
+  <si>
+    <t>Související zdroj</t>
   </si>
 </sst>
 </file>
@@ -702,16 +708,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -719,7 +725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -727,7 +733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -746,29 +752,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.1796875" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="5" max="5" width="60.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="9" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -785,22 +792,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -816,14 +829,14 @@
       <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -837,14 +850,14 @@
       <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -858,11 +871,11 @@
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -876,11 +889,11 @@
       <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -894,11 +907,11 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -911,64 +924,67 @@
       <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>61</v>
+      <c r="J7" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="1378" yWindow="341" count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="F1" xr:uid="{2F04CFAF-53E1-40FB-9F40-D8928FB2EEAD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Typicky se jedná o pojem z jiné agendy, který však má stejný význam. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků._x000a__x000a_" sqref="G1" xr:uid="{9F4B44FC-9F09-43C7-ABC3-A1874B414B67}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="F2:F1048576" xr:uid="{A1CB9558-C2CE-437B-A365-3D7CFDD853E3}">
+  <dataValidations xWindow="1378" yWindow="341" count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G2:G1048576" xr:uid="{A1CB9558-C2CE-437B-A365-3D7CFDD853E3}">
       <formula1>$A$2:$A$771</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C1 C3:C6 C8:C1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E1 E3:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A1 A4:A1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D1 D7:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C8:C1048576 C3:C6" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E3:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A4:A1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D7:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte, jestli je pojem subjekt nebo objekt práva." sqref="B2:B1048576" xr:uid="{0C28AA04-C2E3-495C-BB33-3AE5544BFF93}">
       <formula1>"Objekt práva, Subjekt práva"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="G2:G1048576" xr:uid="{24EDC73B-75F3-410B-8EC9-6A38BCFBC346}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agenda, do které subjekt/objekt (resp. jeho údaje) patří (je „agendový vlastní“, tj. nepřebíraný) - vyplňte kód agendy." sqref="I2:I1048576" xr:uid="{72744882-7FD8-4339-A8BE-1ED469D4FCB5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agendový informační systém (AIS), pro který jsou údaje subjektu/objektu práva „agendově vlastní&quot;, tj. nepřebírané - vyplňte kód ISVS." sqref="J2:J1048576" xr:uid="{EEE86F50-515E-487B-94AD-CCCE28EE0921}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agenda, do které subjekt/objekt (resp. jeho údaje) patří (je „agendový vlastní“, tj. nepřebíraný) - vyplňte kód agendy." sqref="K2:K1048576" xr:uid="{72744882-7FD8-4339-A8BE-1ED469D4FCB5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agendový informační systém (AIS), pro který jsou údaje subjektu/objektu práva „agendově vlastní&quot;, tj. nepřebírané - vyplňte kód ISVS." sqref="L2:L1048576" xr:uid="{EEE86F50-515E-487B-94AD-CCCE28EE0921}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="I2:I1048576" xr:uid="{24EDC73B-75F3-410B-8EC9-6A38BCFBC346}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="H2:H1048576 H2:H1048576" xr:uid="{E2F24742-E0A7-41A3-9B22-0D35827FDDD5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="F2:F1048576" xr:uid="{7D1305A4-B58D-4AAC-858C-D38F563FE0C8}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:L1" xr:uid="{216596DE-A9DE-46D5-A93E-C5F57DC9840A}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{EF79DCAE-9C78-4F84-A8FF-037DCD14569C}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{959D5884-C443-4D5F-919F-C4B70ABFE3BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DDA33D-1F62-45BA-B8E5-510B45B31189}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="5" max="5" width="60.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="9" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -985,29 +1001,35 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1020,11 +1042,11 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1037,11 +1059,11 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1054,66 +1076,67 @@
       <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{13DDA33D-1F62-45BA-B8E5-510B45B31189}"/>
+  <autoFilter ref="A1:N1" xr:uid="{13DDA33D-1F62-45BA-B8E5-510B45B31189}"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="602" yWindow="332" count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A1:A1048576 I1 B1" xr:uid="{A3F0A38A-7098-4212-B6AD-93489909A0B3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Typicky se jedná o pojem z jiné agendy, který však má stejný význam. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků._x000a__x000a_" sqref="G1" xr:uid="{E1977F6F-F04D-47D7-97A0-7DB12D066767}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="F1" xr:uid="{E4C14081-2D47-4FDB-A841-D0870E75469D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D1:D1048576" xr:uid="{5154BDAD-3AF2-40EB-9E86-C57509E532E3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E1:E1048576 I1" xr:uid="{5577CFBC-979D-4DA6-9F87-BF6764C65161}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C5:C1048576 C1" xr:uid="{89E7CF46-0E4C-48D5-9A62-17184EC16CDC}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="F2:F1048576" xr:uid="{CE4B9CF3-09AA-4433-B737-5E40F73B65EA}">
+  <dataValidations xWindow="602" yWindow="332" count="13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A2:A1048576" xr:uid="{A3F0A38A-7098-4212-B6AD-93489909A0B3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D2:D1048576" xr:uid="{5154BDAD-3AF2-40EB-9E86-C57509E532E3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E2:E1048576" xr:uid="{5577CFBC-979D-4DA6-9F87-BF6764C65161}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C5:C1048576" xr:uid="{89E7CF46-0E4C-48D5-9A62-17184EC16CDC}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G2:G1048576" xr:uid="{CE4B9CF3-09AA-4433-B737-5E40F73B65EA}">
       <formula1>$A$2:$A$984</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="G2:G1048576" xr:uid="{07E5C154-60E9-41DF-AED9-E34A0F4DDA02}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali je údaj (ne)veřejný, tj. (ne)přístupný veřejnosti" sqref="K2:K1048576" xr:uid="{16DAE491-161D-4866-A992-BDDB2BA823AF}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="I2:I1048576" xr:uid="{07E5C154-60E9-41DF-AED9-E34A0F4DDA02}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali je údaj (ne)veřejný, tj. (ne)přístupný veřejnosti" sqref="M2:M1048576" xr:uid="{16DAE491-161D-4866-A992-BDDB2BA823AF}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Doplňte datový typ vlastnosti." sqref="I2:I1048576" xr:uid="{D6A00684-0B38-4F16-8C00-18FC225B7712}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Doplňte datový typ vlastnosti." sqref="K2:K1048576" xr:uid="{D6A00684-0B38-4F16-8C00-18FC225B7712}">
       <formula1>"Celé číslo,Desetinné číslo,Odkaz,Datum,Čas,Datum a čas,Ano či ne,Řetězec,Text"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="J2:J1048576" xr:uid="{904CCD10-43E5-4377-83B2-F5DC96814B1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="L2:L1048576" xr:uid="{904CCD10-43E5-4377-83B2-F5DC96814B1B}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="L2:L1048576" xr:uid="{DB740C1B-9293-46C4-996E-E18A4B0B3DBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="N2:N1048576" xr:uid="{DB740C1B-9293-46C4-996E-E18A4B0B3DBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="F2:F1048576" xr:uid="{EB79E25D-54BE-4B15-9A1F-25ADADD23270}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="H2:H1048576" xr:uid="{B93F9303-0069-48FD-B2F9-165E1F031165}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{B9B6ABAB-E396-4C2A-ACC5-4C9426BE2CE8}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{CE867260-4EFA-4BDC-B222-322EFC44FE9E}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{FDDAF840-D13C-4635-8FE6-39AFF445C127}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{CE867260-4EFA-4BDC-B222-322EFC44FE9E}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{FDDAF840-D13C-4635-8FE6-39AFF445C127}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1134,31 +1157,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F5C28-51A8-4892-87C1-7E525C9ADAB6}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="60.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="10" width="15.26953125" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1178,25 +1202,31 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1215,11 +1245,11 @@
       <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1236,11 +1266,11 @@
       <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1251,16 +1281,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1270,41 +1303,44 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{3E5F5C28-51A8-4892-87C1-7E525C9ADAB6}"/>
+  <autoFilter ref="A1:N1" xr:uid="{3E5F5C28-51A8-4892-87C1-7E525C9ADAB6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G1" xr:uid="{CC3CD130-04A7-40DA-9EC2-3740BDAA253B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Typicky se jedná o pojem z jiné agendy, který však má stejný význam. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků._x000a__x000a_" sqref="H1" xr:uid="{50B732AF-1894-4DB9-8145-15E6C977DBB0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="B1:C1" xr:uid="{73F21FEC-1802-48D4-85D5-670D2B680476}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="E1 E5:E1048576" xr:uid="{A8429E5E-1EB2-4DB0-9D41-AC6156399CEB}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G2:G1048576" xr:uid="{7D8CA867-AD1A-46B7-924A-DF1885BA0C77}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="E5:E1048576" xr:uid="{A8429E5E-1EB2-4DB0-9D41-AC6156399CEB}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="H2:H1048576" xr:uid="{7D8CA867-AD1A-46B7-924A-DF1885BA0C77}">
       <formula1>$B$2:$B$978</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="D1 D6:D1048576 D3" xr:uid="{F27613A6-8B9F-4CE2-8D5A-14FCB51B5BE0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="F1:F1048576" xr:uid="{4A24DBC4-BDC9-40BF-B16C-243A42680C2F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="D3 D6:D1048576" xr:uid="{F27613A6-8B9F-4CE2-8D5A-14FCB51B5BE0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název vztahu." sqref="B2:B1048576" xr:uid="{B7BDB029-0D38-4656-AA37-BC61482C4847}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="H2:H1048576" xr:uid="{60CE7C75-DE46-4850-948F-7B7A37D85FEE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="L2:L1048576" xr:uid="{47A14039-41E1-4174-8338-C622A908666C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="J2:J1048576" xr:uid="{CC6F9414-A0B2-4C61-9CAF-F413DBB20593}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="J2:J1048576" xr:uid="{60CE7C75-DE46-4850-948F-7B7A37D85FEE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="N2:N1048576" xr:uid="{47A14039-41E1-4174-8338-C622A908666C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="L2:L1048576" xr:uid="{CC6F9414-A0B2-4C61-9CAF-F413DBB20593}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali je údaj (ne)veřejný, tj. (ne)přístupný veřejnosti" sqref="K2:K1048576" xr:uid="{677A2E5A-4A29-4953-A353-2544D9F3C4A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali je údaj (ne)veřejný, tj. (ne)přístupný veřejnosti" sqref="M2:M1048576" xr:uid="{677A2E5A-4A29-4953-A353-2544D9F3C4A2}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="F5:F1048576 F2:F3" xr:uid="{4A24DBC4-BDC9-40BF-B16C-243A42680C2F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="I2:I1048576" xr:uid="{C3DF9CEE-9484-4F47-81FC-56D042A703C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="G2:G1048576" xr:uid="{38C3392C-BFC6-4684-9E00-2EDEA32BA6E3}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{28F27C0A-59BA-4456-ADB9-FB5F5D1BCD11}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1330,15 +1366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="65742af2-0081-430f-a185-8920289ac160">
@@ -1354,6 +1381,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,20 +1628,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82936FB6-BA39-4A9D-9D90-41D252778FFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A057CC-F79E-47F3-98AA-B167136EC5C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="65742af2-0081-430f-a185-8920289ac160"/>
     <ds:schemaRef ds:uri="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82936FB6-BA39-4A9D-9D90-41D252778FFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/přílohy/popis-dat/šablony/Šablona-pro-popis-dat.xlsx
+++ b/přílohy/popis-dat/šablony/Šablona-pro-popis-dat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceBinderová\data.gov.cz-b\přílohy\popis-dat\šablony\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceBinderová\data.gov.cz\přílohy\popis-dat\šablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96340686-6ECA-477D-BC3E-203E08EDAA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4500DCFF-5BB7-49E3-A89E-20DE50797C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Slovník" sheetId="6" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Vztahy" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Subjekty a objekty práva'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vlastnosti!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vztahy!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Subjekty a objekty práva'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vlastnosti!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vztahy!$A$2:$N$2</definedName>
     <definedName name="_Hlk54895874" localSheetId="1">'Subjekty a objekty práva'!#REF!</definedName>
     <definedName name="_Hlk54895874" localSheetId="2">Vlastnosti!#REF!</definedName>
     <definedName name="_Hlk54895874" localSheetId="3">Vztahy!#REF!</definedName>
@@ -47,7 +47,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+  <si>
+    <t>Název slovníku:</t>
+  </si>
+  <si>
+    <t>Příkladový slovník z metodiky popisu dat</t>
+  </si>
+  <si>
+    <t>Popis slovníku:</t>
+  </si>
+  <si>
+    <t>Ukázkový slovník zákona o silničním provozu z metodiky. Jedná se o příklad popisu; není garantován soulad tohoto slovníku s aktuálními zákony a jinými zdroji z této oblasti.</t>
+  </si>
+  <si>
+    <t>Adresa lokálního katalogu dat, ve kterém bude slovník registrován:</t>
+  </si>
+  <si>
+    <t>Základní charakteristiky</t>
+  </si>
+  <si>
+    <t>Doplňující charakteristiky</t>
+  </si>
+  <si>
+    <t>Charakteristiky RPP</t>
+  </si>
   <si>
     <t>Název</t>
   </si>
@@ -64,19 +88,109 @@
     <t>Zdroj</t>
   </si>
   <si>
+    <t>Související zdroj</t>
+  </si>
+  <si>
     <t>Nadřazený pojem</t>
   </si>
   <si>
+    <t>Alternativní název</t>
+  </si>
+  <si>
     <t>Ekvivalentní pojem</t>
   </si>
   <si>
     <t>Identifikátor</t>
   </si>
   <si>
-    <t>Agenda</t>
-  </si>
-  <si>
-    <t>Agendový informační systém</t>
+    <t>Agenda (kód)</t>
+  </si>
+  <si>
+    <t>Agendový informační systém (kód)</t>
+  </si>
+  <si>
+    <t>Řidič</t>
+  </si>
+  <si>
+    <t>Subjekt práva</t>
+  </si>
+  <si>
+    <t>Řidič je tedy i cyklista, nejen řidič motorových vozidel – neváže se na něj nutně řidičské oprávnění.</t>
+  </si>
+  <si>
+    <t>účastník provozu na pozemních komunikacích, který řídí motorové nebo nemotorové vozidlo anebo tramvaj; řidičem je i jezdec na zvířeti</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-04-01/dokument/norma/cast_1/hlava_1/par_2/pism_d</t>
+  </si>
+  <si>
+    <t>Účastník provozu na pozemních komunikacích</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řidič</t>
+  </si>
+  <si>
+    <t>Řidič evidovaný v registru řidičů</t>
+  </si>
+  <si>
+    <t>Registr řidičů obsahuje a) osobní údaje o řidiči motorového vozidla uvedené v řidičském průkazu a v mezinárodním řidičském průkazu, včetně digitalizované fotografie a digitalizovaného podpisu řidiče,</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_4/par_119/odst_2/pism_a</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řidič-evidovaný-v-registru-řidičů</t>
+  </si>
+  <si>
+    <t>Řidičský průkaz</t>
+  </si>
+  <si>
+    <t>Objekt práva</t>
+  </si>
+  <si>
+    <t>Řidičský průkaz je veřejná listina, která osvědčuje řidičské oprávnění držitele a jeho rozsah a kterou držitel prokazuje své jméno, příjmení a podobu, jakož i další údaje v ní zapsané podle tohoto zákona.</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_3/dil_2/par_103/odst_1</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řidičský-průkaz</t>
+  </si>
+  <si>
+    <t>Vozidlo</t>
+  </si>
+  <si>
+    <t>motorové vozidlo, nemotorové vozidlo nebo tramvaj</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_1/par_2/pism_f</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/vozidlo</t>
+  </si>
+  <si>
+    <t>každý, kdo se přímým způsobem účastní provozu na pozemních komunikacích</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_1/par_2/pism_a</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/účastník-provozu-na-pozemních-komunikacích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obecní úřad obce s rozšířenou působností </t>
+  </si>
+  <si>
+    <t>Úřad vydávající řidičský průkaz je vždy obecním úřadem obce s rozšířenou působností.</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-10-01/dokument/norma/cast_1/hlava_3/dil_2/par_109/odst_3</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/obecní-úřad-obce-s-rozšířenou-působností</t>
+  </si>
+  <si>
+    <t>Charakteristiky vyhlášky 360/2023</t>
   </si>
   <si>
     <t>Subjekt nebo objekt práva</t>
@@ -85,133 +199,64 @@
     <t>Datový typ</t>
   </si>
   <si>
+    <t>Je pojem sdílen v PPDF?</t>
+  </si>
+  <si>
     <t>Je pojem veřejný?</t>
   </si>
   <si>
     <t>Ustanovení dokládající neveřejnost pojmu</t>
   </si>
   <si>
-    <t>Název slovníku:</t>
-  </si>
-  <si>
-    <t>Popis slovníku:</t>
-  </si>
-  <si>
-    <t>Adresa lokálního katalogu dat, ve kterém bude slovník registrován:</t>
-  </si>
-  <si>
-    <t>Je pojem sdílen v PPDF?</t>
-  </si>
-  <si>
-    <t>Řidič</t>
-  </si>
-  <si>
-    <t>Řidič evidovaný v registru řidičů</t>
-  </si>
-  <si>
-    <t>Řidičský průkaz</t>
-  </si>
-  <si>
-    <t>Vozidlo</t>
-  </si>
-  <si>
-    <t>Účastník provozu na pozemních komunikacích</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obecní úřad obce s rozšířenou působností </t>
+    <t>Způsob sdílení údaje</t>
+  </si>
+  <si>
+    <t>Způsob získání údaje</t>
+  </si>
+  <si>
+    <t>Typ obsahu údaje</t>
   </si>
   <si>
     <t>Jméno držitele řidičského průkazu</t>
   </si>
   <si>
+    <t>Řidičský průkaz obsahuje mj. jméno a příjmení držitele</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_3/dil_2/par_105/odst_1/pism_a</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/jméno-držitele-řidičského-průkazu</t>
+  </si>
+  <si>
     <t>Příjmení držitele řidičského průkazu</t>
   </si>
   <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/příjmení-držitele-řidičského-průkazu</t>
+  </si>
+  <si>
     <t>Název obecního úřadu obce s rozšířenou působností</t>
   </si>
   <si>
-    <t>Ukázkový slovník zákona o silničním provozu z metodiky. Jedná se o příklad popisu; není garantován soulad tohoto slovníku s aktuálními zákony a jinými zdroji z této oblasti.</t>
-  </si>
-  <si>
-    <t>Příkladový slovník z metodiky popisu dat</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/</t>
+    <t>Řidičský průkaz obsahuje název úřadu, který řidičský průkaz vydal (což je vždy obecní úřad obce s rozšířenou působností).</t>
+  </si>
+  <si>
+    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-10-01/dokument/norma/cast_1/hlava_3/dil_2/par_105/odst_1/pism_i</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/název-obecního-úřadu-obce-s-rozšířenou-působností</t>
   </si>
   <si>
     <t xml:space="preserve">drží řidičský průkaz </t>
   </si>
   <si>
+    <t>Z definice vyplývá, že řidiči, kteří jsou evidováni v registru řidičů, mohou být držiteli řidičského průkazu.</t>
+  </si>
+  <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/drží-řidičský-průkaz</t>
+  </si>
+  <si>
     <t>řídí vozidlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vydává řidičský průkaz </t>
-  </si>
-  <si>
-    <t>sídlí na adrese</t>
-  </si>
-  <si>
-    <t>https://slovník.gov.cz/legislativní/sbírka/111/2009/pojem/adresa</t>
-  </si>
-  <si>
-    <t>Subjekt práva</t>
-  </si>
-  <si>
-    <t>Objekt práva</t>
-  </si>
-  <si>
-    <t>Řidič je tedy i cyklista, nejen řidič motorových vozidel – neváže se na něj nutně řidičské oprávnění.</t>
-  </si>
-  <si>
-    <t>účastník provozu na pozemních komunikacích, který řídí motorové nebo nemotorové vozidlo anebo tramvaj; řidičem je i jezdec na zvířeti</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-04-01/dokument/norma/cast_1/hlava_1/par_2/pism_d</t>
-  </si>
-  <si>
-    <t>Registr řidičů obsahuje a) osobní údaje o řidiči motorového vozidla uvedené v řidičském průkazu a v mezinárodním řidičském průkazu, včetně digitalizované fotografie a digitalizovaného podpisu řidiče,</t>
-  </si>
-  <si>
-    <t>Řidičský průkaz je veřejná listina, která osvědčuje řidičské oprávnění držitele a jeho rozsah a kterou držitel prokazuje své jméno, příjmení a podobu, jakož i další údaje v ní zapsané podle tohoto zákona.</t>
-  </si>
-  <si>
-    <t>Úřad vydávající řidičský průkaz je vždy obecním úřadem obce s rozšířenou působností.</t>
-  </si>
-  <si>
-    <t>každý, kdo se přímým způsobem účastní provozu na pozemních komunikacích</t>
-  </si>
-  <si>
-    <t>motorové vozidlo, nemotorové vozidlo nebo tramvaj</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_1/par_2/pism_f</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-10-01/dokument/norma/cast_1/hlava_3/dil_2/par_109/odst_3</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_1/par_2/pism_a</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_3/dil_2/par_103/odst_1</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_4/par_119/odst_2/pism_a</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-07-01/dokument/norma/cast_1/hlava_3/dil_2/par_105/odst_1/pism_a</t>
-  </si>
-  <si>
-    <t>https://www.e-sbirka.cz/eli/cz/sb/2000/361/2024-10-01/dokument/norma/cast_1/hlava_3/dil_2/par_105/odst_1/pism_i</t>
-  </si>
-  <si>
-    <t>Řidičský průkaz obsahuje název úřadu, který řidičský průkaz vydal (což je vždy obecní úřad obce s rozšířenou působností).</t>
-  </si>
-  <si>
-    <t>Řidičský průkaz obsahuje mj. jméno a příjmení držitele</t>
-  </si>
-  <si>
-    <t>Z definice vyplývá, že řidiči, kteří jsou evidováni v registru řidičů, mohou být držiteli řidičského průkazu.</t>
   </si>
   <si>
     <r>
@@ -222,9 +267,10 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -232,73 +278,47 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
+        <scheme val="minor"/>
       </rPr>
       <t>účastník provozu na pozemních komunikacích, který řídí motorové nebo nemotorové vozidlo anebo tramvaj; řidičem je i jezdec na zvířeti</t>
     </r>
   </si>
   <si>
+    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řídí-vozidlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vydává řidičský průkaz </t>
+  </si>
+  <si>
     <t>Z definice vyplývá, že řidiči, kteří jsou evidováni v registru řidičů, mohou být držiteli řidičského průkazu.</t>
   </si>
   <si>
     <t>Řidičský průkaz vydá příslušný obecní úřad obce s rozšířenou působností na žádost držitele řidičského oprávnění.</t>
   </si>
   <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řidič</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řidičský-průkaz</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/obecní-úřad-obce-s-rozšířenou-působností</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řidič-evidovaný-v-registru-řidičů</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/vozidlo</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/účastník-provozu-na-pozemních-komunikacích</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/jméno-držitele-řidičského-průkazu</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/příjmení-držitele-řidičského-průkazu</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/název-obecního-úřadu-obce-s-rozšířenou-působností</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/drží-řidičský-průkaz</t>
-  </si>
-  <si>
-    <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/řídí-vozidlo</t>
-  </si>
-  <si>
     <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/vydává-řidičský-průkaz</t>
   </si>
   <si>
+    <t>sídlí na adrese</t>
+  </si>
+  <si>
+    <t>https://slovník.gov.cz/legislativní/sbírka/111/2009/pojem/adresa</t>
+  </si>
+  <si>
+    <t>Sídlo úřadu vydávajícího průkaz (obecním úřadem ORP) se nachází na nějaké adrese. Adresa je obecně definována v zákoně o základních registrech.</t>
+  </si>
+  <si>
     <t>https://data.dia.gov.cz/příkladový-slovník-z-metodiky-popisu-dat/pojem/sídlí-na-adrese</t>
-  </si>
-  <si>
-    <t>Sídlo úřadu vydávajícího průkaz (obecním úřadem ORP) se nachází na nějaké adrese. Adresa je obecně definována v zákoně o základních registrech.</t>
-  </si>
-  <si>
-    <t>Alternativní název</t>
-  </si>
-  <si>
-    <t>Související zdroj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,12 +367,21 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,12 +401,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -386,13 +414,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{31B833F2-3BD0-4DAC-BB9E-D63D96AAF249}"/>
-    <cellStyle name="Hypertextový odkaz" xfId="2" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -707,251 +739,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC37FD07-DCA5-4F2E-BC5C-C20173B54937}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{669D1D5A-2926-4033-9294-A847DCF3436D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" customWidth="1"/>
-    <col min="5" max="5" width="60.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="9" width="15.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="60.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3"/>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <dataConsolidate/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations xWindow="1378" yWindow="341" count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G2:G1048576" xr:uid="{A1CB9558-C2CE-437B-A365-3D7CFDD853E3}">
-      <formula1>$A$2:$A$771</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G3:G1048576" xr:uid="{A1CB9558-C2CE-437B-A365-3D7CFDD853E3}">
+      <formula1>$A$3:$A$772</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C8:C1048576 C3:C6" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E3:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A4:A1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D7:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte, jestli je pojem subjekt nebo objekt práva." sqref="B2:B1048576" xr:uid="{0C28AA04-C2E3-495C-BB33-3AE5544BFF93}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C9:C1048576 C4:C7" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E4:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A5:A1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D8:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte, jestli je pojem subjekt nebo objekt práva." sqref="B3:B1048576" xr:uid="{0C28AA04-C2E3-495C-BB33-3AE5544BFF93}">
       <formula1>"Objekt práva, Subjekt práva"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agenda, do které subjekt/objekt (resp. jeho údaje) patří (je „agendový vlastní“, tj. nepřebíraný) - vyplňte kód agendy." sqref="K2:K1048576" xr:uid="{72744882-7FD8-4339-A8BE-1ED469D4FCB5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agendový informační systém (AIS), pro který jsou údaje subjektu/objektu práva „agendově vlastní&quot;, tj. nepřebírané - vyplňte kód ISVS." sqref="L2:L1048576" xr:uid="{EEE86F50-515E-487B-94AD-CCCE28EE0921}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="I2:I1048576" xr:uid="{24EDC73B-75F3-410B-8EC9-6A38BCFBC346}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="H2:H1048576 H2:H1048576" xr:uid="{E2F24742-E0A7-41A3-9B22-0D35827FDDD5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="F2:F1048576" xr:uid="{7D1305A4-B58D-4AAC-858C-D38F563FE0C8}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:L1" xr:uid="{216596DE-A9DE-46D5-A93E-C5F57DC9840A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agenda, do které subjekt/objekt (resp. jeho údaje) patří (je „agendový vlastní“, tj. nepřebíraný) - vyplňte kód agendy." sqref="K3:K1048576" xr:uid="{72744882-7FD8-4339-A8BE-1ED469D4FCB5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Agendový informační systém (AIS), pro který jsou údaje subjektu/objektu práva „agendově vlastní&quot;, tj. nepřebírané - vyplňte kód ISVS." sqref="L3:L1048576" xr:uid="{EEE86F50-515E-487B-94AD-CCCE28EE0921}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="I3:I1048576" xr:uid="{24EDC73B-75F3-410B-8EC9-6A38BCFBC346}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="H3:H1048576" xr:uid="{E2F24742-E0A7-41A3-9B22-0D35827FDDD5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="F3:F1048576" xr:uid="{7D1305A4-B58D-4AAC-858C-D38F563FE0C8}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:L2" xr:uid="{216596DE-A9DE-46D5-A93E-C5F57DC9840A}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{EF79DCAE-9C78-4F84-A8FF-037DCD14569C}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{959D5884-C443-4D5F-919F-C4B70ABFE3BA}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{EF79DCAE-9C78-4F84-A8FF-037DCD14569C}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{959D5884-C443-4D5F-919F-C4B70ABFE3BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -960,183 +1014,227 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DDA33D-1F62-45BA-B8E5-510B45B31189}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" customWidth="1"/>
-    <col min="5" max="5" width="60.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="9" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="60.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="9" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13"/>
     </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{13DDA33D-1F62-45BA-B8E5-510B45B31189}"/>
+  <autoFilter ref="A2:N2" xr:uid="{13DDA33D-1F62-45BA-B8E5-510B45B31189}"/>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="602" yWindow="332" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A2:A1048576" xr:uid="{A3F0A38A-7098-4212-B6AD-93489909A0B3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D2:D1048576" xr:uid="{5154BDAD-3AF2-40EB-9E86-C57509E532E3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E2:E1048576" xr:uid="{5577CFBC-979D-4DA6-9F87-BF6764C65161}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C5:C1048576" xr:uid="{89E7CF46-0E4C-48D5-9A62-17184EC16CDC}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G2:G1048576" xr:uid="{CE4B9CF3-09AA-4433-B737-5E40F73B65EA}">
-      <formula1>$A$2:$A$984</formula1>
+  <dataValidations xWindow="602" yWindow="332" count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." sqref="A3:A1048576" xr:uid="{A3F0A38A-7098-4212-B6AD-93489909A0B3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="D3:D1048576" xr:uid="{5154BDAD-3AF2-40EB-9E86-C57509E532E3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="E3:E1048576" xr:uid="{5577CFBC-979D-4DA6-9F87-BF6764C65161}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="C6:C1048576" xr:uid="{89E7CF46-0E4C-48D5-9A62-17184EC16CDC}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="G3:G1048576" xr:uid="{CE4B9CF3-09AA-4433-B737-5E40F73B65EA}">
+      <formula1>$A$3:$A$985</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="I2:I1048576" xr:uid="{07E5C154-60E9-41DF-AED9-E34A0F4DDA02}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali je údaj (ne)veřejný, tj. (ne)přístupný veřejnosti" sqref="M2:M1048576" xr:uid="{16DAE491-161D-4866-A992-BDDB2BA823AF}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="I3:I1048576" xr:uid="{07E5C154-60E9-41DF-AED9-E34A0F4DDA02}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali jsou data popsaná pojmem (ne)veřejná, tj. (ne)přístupná veřejnosti" sqref="M3:M1048576" xr:uid="{16DAE491-161D-4866-A992-BDDB2BA823AF}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Doplňte datový typ vlastnosti." sqref="K2:K1048576" xr:uid="{D6A00684-0B38-4F16-8C00-18FC225B7712}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Doplňte datový typ vlastnosti." sqref="K3:K1048576" xr:uid="{D6A00684-0B38-4F16-8C00-18FC225B7712}">
       <formula1>"Celé číslo,Desetinné číslo,Odkaz,Datum,Čas,Datum a čas,Ano či ne,Řetězec,Text"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="L2:L1048576" xr:uid="{904CCD10-43E5-4377-83B2-F5DC96814B1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="L3:L1048576" xr:uid="{904CCD10-43E5-4377-83B2-F5DC96814B1B}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="N2:N1048576" xr:uid="{DB740C1B-9293-46C4-996E-E18A4B0B3DBC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="F2:F1048576" xr:uid="{EB79E25D-54BE-4B15-9A1F-25ADADD23270}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="H2:H1048576" xr:uid="{B93F9303-0069-48FD-B2F9-165E1F031165}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{B9B6ABAB-E396-4C2A-ACC5-4C9426BE2CE8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="N3:N1048576" xr:uid="{DB740C1B-9293-46C4-996E-E18A4B0B3DBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="F3:F1048576" xr:uid="{EB79E25D-54BE-4B15-9A1F-25ADADD23270}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="H3:H1048576" xr:uid="{B93F9303-0069-48FD-B2F9-165E1F031165}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:XFD2" xr:uid="{B9B6ABAB-E396-4C2A-ACC5-4C9426BE2CE8}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576" xr:uid="{BD85CD45-49CC-44E4-A936-E7668DF670F4}">
+      <formula1>"Základních registrů,Jiných agend,Vlastní,Provozní"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Přiřazení do kategorie, která charakterizuje odpovídající údaj z hlediska způsobu jeho získání či vzniku v rámci dané věcné oblasti." sqref="O3:O1048576" xr:uid="{20C3A296-E413-4528-88FE-0B2E97CF88B5}">
+      <formula1>"Základních registrů,Jiných agend,Vlastní,Provozní"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Přiřazení do kategorie, která charakterizuje odpovídající údaj z hlediska způsobu jeho sdílení mimo danou věcnou oblast, ve které je spravován." sqref="P3:P1048576" xr:uid="{EE081268-BA8A-4E41-9667-C403DCE905B7}">
+      <formula1>"Veřejně přístupné,Poskytované na žádost,Zpřístupňované pro výkon agendy,Nesdílené"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Přiřazení do kategorie, která charakterizuje odpovídající údaj z hlediska toho, nakolik je jeho obsah spojitelný s konkrétním identifikovatelným subjektem práva." sqref="Q3:Q1048576" xr:uid="{32323A13-298D-48DC-A07F-56D048A970BA}">
+      <formula1>"Identifikační,Evidenční,Statistické"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{CE867260-4EFA-4BDC-B222-322EFC44FE9E}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{FDDAF840-D13C-4635-8FE6-39AFF445C127}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{CE867260-4EFA-4BDC-B222-322EFC44FE9E}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{FDDAF840-D13C-4635-8FE6-39AFF445C127}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1145,9 +1243,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="602" yWindow="332" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu, ke kterému se vlastnost vztahuje." xr:uid="{ED04C739-BB4C-43F5-AAD3-74F47BC1B24F}">
           <x14:formula1>
-            <xm:f>'Subjekty a objekty práva'!$A$2:$A$771</xm:f>
+            <xm:f>'Subjekty a objekty práva'!$A$3:$A$772</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1157,190 +1255,214 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F5C28-51A8-4892-87C1-7E525C9ADAB6}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="28.26953125" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" customWidth="1"/>
-    <col min="6" max="6" width="60.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
-    <col min="9" max="10" width="15.26953125" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="60.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="10" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3"/>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D7"/>
     </row>
+    <row r="8" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{3E5F5C28-51A8-4892-87C1-7E525C9ADAB6}"/>
+  <autoFilter ref="A2:N2" xr:uid="{3E5F5C28-51A8-4892-87C1-7E525C9ADAB6}"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="E5:E1048576" xr:uid="{A8429E5E-1EB2-4DB0-9D41-AC6156399CEB}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="H2:H1048576" xr:uid="{7D8CA867-AD1A-46B7-924A-DF1885BA0C77}">
-      <formula1>$B$2:$B$978</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Definice získaná z nějakého zdroje. Neměla by tedy být tvořena Vámi, stačí zkopírovat přímo ze zdroje." sqref="E6:E1048576" xr:uid="{A8429E5E-1EB2-4DB0-9D41-AC6156399CEB}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Významově širší pojem. Například: Správce hradu má nadřazený pojem Správce turistického cíle, Kočka má nadřazený pojem Savec, Motor má nadřazený pojem Auto._x000a__x000a_" sqref="H3:H1048576" xr:uid="{7D8CA867-AD1A-46B7-924A-DF1885BA0C77}">
+      <formula1>$B$3:$B$979</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="D3 D6:D1048576" xr:uid="{F27613A6-8B9F-4CE2-8D5A-14FCB51B5BE0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název vztahu." sqref="B2:B1048576" xr:uid="{B7BDB029-0D38-4656-AA37-BC61482C4847}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="J2:J1048576" xr:uid="{60CE7C75-DE46-4850-948F-7B7A37D85FEE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="N2:N1048576" xr:uid="{47A14039-41E1-4174-8338-C622A908666C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="L2:L1048576" xr:uid="{CC6F9414-A0B2-4C61-9CAF-F413DBB20593}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vaše doplňující poznámky anebo zjednodušený výklad definice.  " sqref="D4 D7:D1048576" xr:uid="{F27613A6-8B9F-4CE2-8D5A-14FCB51B5BE0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Doplňte název vztahu." sqref="B3:B1048576" xr:uid="{B7BDB029-0D38-4656-AA37-BC61482C4847}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Významově ekvivalentní pojem. Například: Správce hradu z agendy Turistických cílů má ekvivalentní pojem Správce hradu z agendy Hradů a zámků. Pokud možno, vyplňte identifikátor (IRI) pojmu._x000a__x000a_" sqref="J3:J1048576" xr:uid="{60CE7C75-DE46-4850-948F-7B7A37D85FEE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Ustanovení, ze kterého neveřejnost údaje vyplývá; vyplňuje se právě tehdy, když charakteristika pojmu „Je pojem veřejný?“ je „Ne“" sqref="N3:N1048576" xr:uid="{47A14039-41E1-4174-8338-C622A908666C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Sdílení údaje (plánované nebo již uskutečněné) v propojeném datovém fondu . „Ne“ znamená „není a nebude sdílen“ nebo „je sdílen, ale ne v PPDF“." sqref="L3:L1048576" xr:uid="{CC6F9414-A0B2-4C61-9CAF-F413DBB20593}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali je údaj (ne)veřejný, tj. (ne)přístupný veřejnosti" sqref="M2:M1048576" xr:uid="{677A2E5A-4A29-4953-A353-2544D9F3C4A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Určení, zdali je údaj (ne)veřejný, tj. (ne)přístupný veřejnosti" sqref="M3:M1048576" xr:uid="{677A2E5A-4A29-4953-A353-2544D9F3C4A2}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="F5:F1048576 F2:F3" xr:uid="{4A24DBC4-BDC9-40BF-B16C-243A42680C2F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="I2:I1048576" xr:uid="{C3DF9CEE-9484-4F47-81FC-56D042A703C5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="G2:G1048576" xr:uid="{38C3392C-BFC6-4684-9E00-2EDEA32BA6E3}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{28F27C0A-59BA-4456-ADB9-FB5F5D1BCD11}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Vložte odkaz na zdroj definice - Zákony pro lidi/eSbírka/dokument... U odkazu na web zajistěte, že je odkaz co nejkonkrétnější, tj. že odkazuje na konkrétní paragraf/písmeno a ne na celý zákon." sqref="F6:F1048576 F3:F4" xr:uid="{4A24DBC4-BDC9-40BF-B16C-243A42680C2F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="I3:I1048576" xr:uid="{C3DF9CEE-9484-4F47-81FC-56D042A703C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Zdroj, který nedefinuje, nýbrž upřesňuje význam pojmu." sqref="G3:G1048576" xr:uid="{38C3392C-BFC6-4684-9E00-2EDEA32BA6E3}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:N2 R2:XFD2" xr:uid="{28F27C0A-59BA-4456-ADB9-FB5F5D1BCD11}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1349,15 +1471,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Nápověda" prompt="Doplňte název pojmu." xr:uid="{793619C6-4434-4117-B3E7-41FA59A0DE02}">
           <x14:formula1>
-            <xm:f>'Subjekty a objekty práva'!$A$2:$A$771</xm:f>
+            <xm:f>'Subjekty a objekty práva'!$A$3:$A$772</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E9F3698-0772-466F-9595-2383290504D0}">
           <x14:formula1>
-            <xm:f>'Subjekty a objekty práva'!$A$2:$A$771</xm:f>
+            <xm:f>'Subjekty a objekty práva'!$A$3:$A$772</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1366,37 +1488,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65742af2-0081-430f-a185-8920289ac160">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" xsi:nil="true"/>
-    <SharedWithUsers xmlns="34c5978a-6285-4111-9aba-dd5c4d9e9cd5">
-      <UserInfo>
-        <DisplayName>Žalobínová Petra</DisplayName>
-        <AccountId>326</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010020DEE93CC4124F468B629FDD49B3A06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="a752018f6f687596d9fdf24a5aa26d08">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65742af2-0081-430f-a185-8920289ac160" xmlns:ns3="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="875771711deca117c8bc954e8f86981d" ns2:_="" ns3:_="">
-    <xsd:import namespace="65742af2-0081-430f-a185-8920289ac160"/>
-    <xsd:import namespace="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101003DFD27000E83C74CB14A0377F78F61D5" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="a9d78f77cf4282f25e3c937513c2cc67">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295d819b-bf18-46bf-9ff7-08a644d34552" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4670218af9848083cea27963b82eda20" ns2:_="">
+    <xsd:import namespace="295d819b-bf18-46bf-9ff7-08a644d34552"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1405,18 +1499,13 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1424,7 +1513,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="65742af2-0081-430f-a185-8920289ac160" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="295d819b-bf18-46bf-9ff7-08a644d34552" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1437,9 +1526,9 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="10" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
@@ -1447,7 +1536,22 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d2a44d23-90f1-4afd-aa8c-0d6faad4ae95" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d2a44d23-90f1-4afd-aa8c-0d6faad4ae95" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1460,72 +1564,6 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1ff4a863-3d7b-458c-853d-64c27905ee86}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="34c5978a-6285-4111-9aba-dd5c4d9e9cd5">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1627,13 +1665,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="295d819b-bf18-46bf-9ff7-08a644d34552">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A057CC-F79E-47F3-98AA-B167136EC5C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61DD670D-BACE-46A4-9BA8-1B19F1BB41D8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="295d819b-bf18-46bf-9ff7-08a644d34552"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65742af2-0081-430f-a185-8920289ac160"/>
-    <ds:schemaRef ds:uri="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1647,20 +1711,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A2DDB13-BE4A-4163-9B5C-578CBE908907}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A057CC-F79E-47F3-98AA-B167136EC5C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65742af2-0081-430f-a185-8920289ac160"/>
-    <ds:schemaRef ds:uri="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="295d819b-bf18-46bf-9ff7-08a644d34552"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/přílohy/popis-dat/šablony/Šablona-pro-popis-dat.xlsx
+++ b/přílohy/popis-dat/šablony/Šablona-pro-popis-dat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceBinderová\data.gov.cz\přílohy\popis-dat\šablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4500DCFF-5BB7-49E3-A89E-20DE50797C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D577FEF-9DCD-46B2-ABB4-F6231986C12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Slovník" sheetId="6" r:id="rId1"/>
@@ -739,15 +739,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC37FD07-DCA5-4F2E-BC5C-C20173B54937}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="2" max="2" width="75.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -789,22 +789,22 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="1" max="1" width="41.1796875" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" width="60.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="5" max="5" width="60.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,7 +861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -884,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -905,7 +905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -923,7 +923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -941,7 +941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -959,7 +959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1016,32 +1016,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DDA33D-1F62-45BA-B8E5-510B45B31189}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" width="60.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="9" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="21.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="5" max="5" width="60.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="9" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1163,31 +1163,31 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C14"/>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Další, neoficiální název pojmu." sqref="H3:H1048576" xr:uid="{B93F9303-0069-48FD-B2F9-165E1F031165}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:XFD2" xr:uid="{B9B6ABAB-E396-4C2A-ACC5-4C9426BE2CE8}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576" xr:uid="{BD85CD45-49CC-44E4-A936-E7668DF670F4}">
-      <formula1>"Základních registrů,Jiných agend,Vlastní,Provozní"</formula1>
+      <formula1>"Nesdílené,Poskytované na žádost,Veřejně přístupné,Zpřístupňované pro výkon agendy"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nápověda" prompt="Přiřazení do kategorie, která charakterizuje odpovídající údaj z hlediska způsobu jeho získání či vzniku v rámci dané věcné oblasti." sqref="O3:O1048576" xr:uid="{20C3A296-E413-4528-88FE-0B2E97CF88B5}">
       <formula1>"Základních registrů,Jiných agend,Vlastní,Provozní"</formula1>
@@ -1264,23 +1264,23 @@
       <selection pane="bottomRight" activeCell="O1" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" customWidth="1"/>
-    <col min="6" max="6" width="60.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="10" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="23.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="10" width="15.1796875" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1430,10 +1430,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D8"/>
     </row>
   </sheetData>
@@ -1488,6 +1488,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="295d819b-bf18-46bf-9ff7-08a644d34552">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101003DFD27000E83C74CB14A0377F78F61D5" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="a9d78f77cf4282f25e3c937513c2cc67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295d819b-bf18-46bf-9ff7-08a644d34552" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4670218af9848083cea27963b82eda20" ns2:_="">
     <xsd:import namespace="295d819b-bf18-46bf-9ff7-08a644d34552"/>
@@ -1665,26 +1684,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A057CC-F79E-47F3-98AA-B167136EC5C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="295d819b-bf18-46bf-9ff7-08a644d34552"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="295d819b-bf18-46bf-9ff7-08a644d34552">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82936FB6-BA39-4A9D-9D90-41D252778FFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61DD670D-BACE-46A4-9BA8-1B19F1BB41D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1700,28 +1724,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82936FB6-BA39-4A9D-9D90-41D252778FFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A057CC-F79E-47F3-98AA-B167136EC5C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="295d819b-bf18-46bf-9ff7-08a644d34552"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>